--- a/Effective Java/src/topic.xlsx
+++ b/Effective Java/src/topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14760" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14760" windowHeight="6000" tabRatio="285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Item1</t>
   </si>
@@ -48,6 +48,37 @@
   </si>
   <si>
     <t>Inner classes (Item 22) should not implement Serializable.</t>
+  </si>
+  <si>
+    <t>Item 75</t>
+  </si>
+  <si>
+    <t>Consider using custom serialized form</t>
+  </si>
+  <si>
+    <t>Item 76</t>
+  </si>
+  <si>
+    <t>Write readObject methods defensively</t>
+  </si>
+  <si>
+    <t>When an object is deserialized, it is critical to defensively copy any field containing an object reference that a client must not possess.</t>
+  </si>
+  <si>
+    <t>Do not use the writeUnshared and readUnshared
+methods.</t>
+  </si>
+  <si>
+    <t>For instance control prefer enum type to readResolve</t>
+  </si>
+  <si>
+    <t>Item 77</t>
+  </si>
+  <si>
+    <t>Item 78</t>
+  </si>
+  <si>
+    <t>Consider serialized proxies instead of serialized instances.</t>
   </si>
 </sst>
 </file>
@@ -79,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -102,20 +133,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,15 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -429,55 +509,108 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="30">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="3" t="s">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="3" t="s">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="3" t="s">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="3" t="s">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="3" t="s">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30">
+      <c r="A82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="B74:B79"/>
     <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A84:A85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/Effective Java/src/topic.xlsx
+++ b/Effective Java/src/topic.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Item1</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Consider serialized proxies instead of serialized instances.</t>
+  </si>
+  <si>
+    <t>Consider static factory method instead of constructor.</t>
+  </si>
+  <si>
+    <t>One advantage of static factory methods is that, unlike constructors, they
+have names.</t>
+  </si>
+  <si>
+    <t>A second advantage of static factory methods is that, unlike constructors,
+they are not required to create a new object each time they’re invoked.</t>
+  </si>
+  <si>
+    <t>A third advantage of static factory methods is that, unlike constructors,
+they can return an object of any subtype of their return type.</t>
   </si>
 </sst>
 </file>
@@ -174,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -184,6 +199,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -193,9 +212,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,16 +521,32 @@
     <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="30">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -520,42 +554,42 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="30">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -563,10 +597,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="30">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -574,31 +608,31 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="30">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="4"/>
